--- a/test/templates/without-diagram.xlsx
+++ b/test/templates/without-diagram.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27321"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3903412A-0348-44D3-BE6D-B0FBF4568D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1409E67-5B97-4B52-AF9C-BE3B0922F0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
     <t>End</t>
   </si>
   <si>
-    <t>Duration</t>
+    <t>Duration, days</t>
   </si>
   <si>
     <t>Cost per hour, $/h</t>
@@ -109,7 +109,7 @@
     <t>Asset Cost, $</t>
   </si>
   <si>
-    <t>[[assets]]{{serialNumber}}</t>
+    <t>[[Assets]]{{serialNumber}}</t>
   </si>
   <si>
     <t>[[jobs]]{{title}}</t>
@@ -182,6 +182,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="12">
     <font>
       <sz val="10"/>
@@ -345,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -393,6 +397,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,22 +421,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB0C4407-B9EB-A786-0A3E-515E010AC8B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB021ED9-CFE1-B73C-5371-7299953966C3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6119E705-197C-A3DF-077A-33B6E4EF43C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -446,8 +455,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12020550" y="333375"/>
-          <a:ext cx="1419225" cy="438150"/>
+          <a:off x="12125325" y="962025"/>
+          <a:ext cx="1600200" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -459,25 +468,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C30AF0E-5AF2-C877-9D3B-F67F7BA69778}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028D3E48-C35D-18DC-BFCF-0F06DEB7C617}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DB0C4407-B9EB-A786-0A3E-515E010AC8B9}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DB021ED9-CFE1-B73C-5371-7299953966C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -493,8 +502,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12201525" y="1133475"/>
-          <a:ext cx="1495425" cy="1152525"/>
+          <a:off x="12534900" y="95250"/>
+          <a:ext cx="762000" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -707,10 +716,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -823,7 +832,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="12.75">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -936,7 +945,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="3" t="e">
-        <f>SUM(G17:G17)</f>
+        <f>ROUND(SUM(G17:G17), 2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -952,14 +961,14 @@
         <v>28</v>
       </c>
       <c r="E17" s="15" t="e">
-        <f>D17-C17</f>
+        <f>ROUND(D17-C17, 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="F17" s="16">
         <v>10</v>
       </c>
       <c r="G17" s="16" t="e">
-        <f>E17*F17*24</f>
+        <f>ROUND(E17*F17*24, 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H17" s="3"/>
@@ -982,14 +991,14 @@
         <v>29</v>
       </c>
       <c r="E19" s="18" t="e">
-        <f>SUM(E16:E18)</f>
+        <f>ROUND(SUM(E16:E18), 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>30</v>
       </c>
       <c r="G19" s="20" t="e">
-        <f>SUM(G16:G18)</f>
+        <f>ROUND(SUM(G16:G18), 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H19" s="26"/>
@@ -1006,6 +1015,12 @@
     </row>
     <row r="21" spans="1:8">
       <c r="H21" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+      <c r="D26" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/test/templates/without-diagram.xlsx
+++ b/test/templates/without-diagram.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27324"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1409E67-5B97-4B52-AF9C-BE3B0922F0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C96E139-3022-43E8-A78F-434B1542DB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,7 +719,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -961,7 +961,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="15" t="e">
-        <f>ROUND(D17-C17, 2)</f>
+        <f>ROUND(D17-C17, 4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="F17" s="16">
